--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +89,15 @@
   </si>
   <si>
     <t>Adam11</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H2">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I2">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J2">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="N2">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="Q2">
-        <v>12.16350274211459</v>
+        <v>0.6838048008466666</v>
       </c>
       <c r="R2">
-        <v>12.16350274211459</v>
+        <v>4.10282880508</v>
       </c>
       <c r="S2">
-        <v>0.9465110918858207</v>
+        <v>0.03346771794031538</v>
       </c>
       <c r="T2">
-        <v>0.9465110918858207</v>
+        <v>0.03153491264332983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H3">
+        <v>21.583612</v>
+      </c>
+      <c r="I3">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J3">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.16837</v>
+      </c>
+      <c r="O3">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P3">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q3">
+        <v>0.4037814169377777</v>
+      </c>
+      <c r="R3">
+        <v>3.63403275244</v>
+      </c>
+      <c r="S3">
+        <v>0.01976242716471461</v>
+      </c>
+      <c r="T3">
+        <v>0.02793168100245906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H4">
+        <v>21.583612</v>
+      </c>
+      <c r="I4">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J4">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.124867</v>
+      </c>
+      <c r="O4">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P4">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q4">
+        <v>0.2994534310671111</v>
+      </c>
+      <c r="R4">
+        <v>2.695080879604</v>
+      </c>
+      <c r="S4">
+        <v>0.0146562629493165</v>
+      </c>
+      <c r="T4">
+        <v>0.02071476635822329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H5">
+        <v>21.583612</v>
+      </c>
+      <c r="I5">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J5">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.654899</v>
+      </c>
+      <c r="O5">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P5">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q5">
+        <v>1.570565101687555</v>
+      </c>
+      <c r="R5">
+        <v>14.135085915188</v>
+      </c>
+      <c r="S5">
+        <v>0.07686876395880757</v>
+      </c>
+      <c r="T5">
+        <v>0.108644235652607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H6">
+        <v>21.583612</v>
+      </c>
+      <c r="I6">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J6">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.113491</v>
+      </c>
+      <c r="N6">
+        <v>0.340473</v>
+      </c>
+      <c r="O6">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P6">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q6">
+        <v>0.8165152364973334</v>
+      </c>
+      <c r="R6">
+        <v>7.348637128476</v>
+      </c>
+      <c r="S6">
+        <v>0.03996301516928121</v>
+      </c>
+      <c r="T6">
+        <v>0.05648264670636245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H7">
+        <v>21.583612</v>
+      </c>
+      <c r="I7">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J7">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.159188</v>
+      </c>
+      <c r="N7">
+        <v>4.318376</v>
+      </c>
+      <c r="O7">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P7">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q7">
+        <v>15.53435867568533</v>
+      </c>
+      <c r="R7">
+        <v>93.206152054112</v>
+      </c>
+      <c r="S7">
+        <v>0.7603040135105862</v>
+      </c>
+      <c r="T7">
+        <v>0.7163954438479251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="H3">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="I3">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="J3">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.75186754781861</v>
-      </c>
-      <c r="N3">
-        <v>1.75186754781861</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.6873796684445188</v>
-      </c>
-      <c r="R3">
-        <v>0.6873796684445188</v>
-      </c>
-      <c r="S3">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="T3">
-        <v>0.05348890811417928</v>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.067159</v>
+      </c>
+      <c r="I8">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J8">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.095045</v>
+      </c>
+      <c r="N8">
+        <v>0.19009</v>
+      </c>
+      <c r="O8">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P8">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q8">
+        <v>0.002127709051666666</v>
+      </c>
+      <c r="R8">
+        <v>0.01276625431</v>
+      </c>
+      <c r="S8">
+        <v>0.0001041372717946209</v>
+      </c>
+      <c r="T8">
+        <v>9.812320561606593E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.067159</v>
+      </c>
+      <c r="I9">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J9">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.16837</v>
+      </c>
+      <c r="O9">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P9">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q9">
+        <v>0.001256395647777778</v>
+      </c>
+      <c r="R9">
+        <v>0.01130756083</v>
+      </c>
+      <c r="S9">
+        <v>6.149224911729641E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.691148471554012E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.067159</v>
+      </c>
+      <c r="I10">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J10">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.124867</v>
+      </c>
+      <c r="O10">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P10">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009317714281111111</v>
+      </c>
+      <c r="R10">
+        <v>0.008385942852999999</v>
+      </c>
+      <c r="S10">
+        <v>4.560404270671409E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.445552272955603E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.067159</v>
+      </c>
+      <c r="I11">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J11">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.654899</v>
+      </c>
+      <c r="O11">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P11">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q11">
+        <v>0.004886929104555555</v>
+      </c>
+      <c r="R11">
+        <v>0.043982361941</v>
+      </c>
+      <c r="S11">
+        <v>0.0002391828262437982</v>
+      </c>
+      <c r="T11">
+        <v>0.00033805454908073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.067159</v>
+      </c>
+      <c r="I12">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J12">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.113491</v>
+      </c>
+      <c r="N12">
+        <v>0.340473</v>
+      </c>
+      <c r="O12">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P12">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q12">
+        <v>0.002540647356333333</v>
+      </c>
+      <c r="R12">
+        <v>0.022865826207</v>
+      </c>
+      <c r="S12">
+        <v>0.0001243478679914074</v>
+      </c>
+      <c r="T12">
+        <v>0.0001757499194366817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.067159</v>
+      </c>
+      <c r="I13">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J13">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.159188</v>
+      </c>
+      <c r="N13">
+        <v>4.318376</v>
+      </c>
+      <c r="O13">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P13">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q13">
+        <v>0.04833630229733332</v>
+      </c>
+      <c r="R13">
+        <v>0.290017813784</v>
+      </c>
+      <c r="S13">
+        <v>0.002365741991811077</v>
+      </c>
+      <c r="T13">
+        <v>0.002229117240125647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3961645</v>
+      </c>
+      <c r="H14">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J14">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.095045</v>
+      </c>
+      <c r="N14">
+        <v>0.19009</v>
+      </c>
+      <c r="O14">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P14">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q14">
+        <v>0.0376534549025</v>
+      </c>
+      <c r="R14">
+        <v>0.15061381961</v>
+      </c>
+      <c r="S14">
+        <v>0.001842887336554151</v>
+      </c>
+      <c r="T14">
+        <v>0.001157638758507004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3961645</v>
+      </c>
+      <c r="H15">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J15">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.16837</v>
+      </c>
+      <c r="O15">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P15">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q15">
+        <v>0.02223407228833333</v>
+      </c>
+      <c r="R15">
+        <v>0.13340443373</v>
+      </c>
+      <c r="S15">
+        <v>0.001088210640067415</v>
+      </c>
+      <c r="T15">
+        <v>0.001025365025881553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3961645</v>
+      </c>
+      <c r="H16">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J16">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.124867</v>
+      </c>
+      <c r="O16">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P16">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q16">
+        <v>0.01648929087383334</v>
+      </c>
+      <c r="R16">
+        <v>0.09893574524300001</v>
+      </c>
+      <c r="S16">
+        <v>0.0008070416225770501</v>
+      </c>
+      <c r="T16">
+        <v>0.0007604338937266249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3961645</v>
+      </c>
+      <c r="H17">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J17">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.654899</v>
+      </c>
+      <c r="O17">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P17">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q17">
+        <v>0.08648257829516667</v>
+      </c>
+      <c r="R17">
+        <v>0.5188954697710001</v>
+      </c>
+      <c r="S17">
+        <v>0.004232749658309141</v>
+      </c>
+      <c r="T17">
+        <v>0.003988302726642531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3961645</v>
+      </c>
+      <c r="H18">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J18">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.113491</v>
+      </c>
+      <c r="N18">
+        <v>0.340473</v>
+      </c>
+      <c r="O18">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P18">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q18">
+        <v>0.04496110526950001</v>
+      </c>
+      <c r="R18">
+        <v>0.269766631617</v>
+      </c>
+      <c r="S18">
+        <v>0.002200548442452177</v>
+      </c>
+      <c r="T18">
+        <v>0.002073463838314248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3961645</v>
+      </c>
+      <c r="H19">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J19">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.159188</v>
+      </c>
+      <c r="N19">
+        <v>4.318376</v>
+      </c>
+      <c r="O19">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P19">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q19">
+        <v>0.855393634426</v>
+      </c>
+      <c r="R19">
+        <v>3.421574537704</v>
+      </c>
+      <c r="S19">
+        <v>0.04186585535735372</v>
+      </c>
+      <c r="T19">
+        <v>0.02629869762431713</v>
       </c>
     </row>
   </sheetData>
